--- a/Internacional/Inputs/Stock puerto.xlsx
+++ b/Internacional/Inputs/Stock puerto.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsilva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiarasilva/Documents/2022-S2/Práctica II/Agrosuper/Proyecciones/Proyecciones-S-OP/Internacional/Inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4154390B-5A0E-4662-931E-FEA9144D4C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC98665F-BBA1-9E4B-8BC4-864065BB1E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17800" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0ANALYSIS_PATTERN (3)" sheetId="1" r:id="rId1"/>
@@ -1588,9 +1588,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0&quot; KG&quot;;\-#,##0&quot; KG&quot;;#,##0&quot; KG&quot;;@"/>
+    <numFmt numFmtId="164" formatCode="#,##0&quot; KG&quot;;\-#,##0&quot; KG&quot;;#,##0&quot; KG&quot;;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2185,19 +2185,19 @@
     <xf numFmtId="49" fontId="20" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2289,8 +2289,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>924502</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2346,7 +2346,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2634,55 +2634,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S277"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A204" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="15"/>
@@ -2735,7 +2735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>234165.79500000001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>43981.055999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>163240.56599999999</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>1372665.6869999999</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>1112807.808</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>344772.288</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3139,7 @@
         <v>166561.92000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3180,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>198203.742</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3278,7 @@
         <v>27990.6</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>297844.50300000003</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>2394.9690000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>13</v>
       </c>
@@ -3433,7 +3433,7 @@
         <v>408457.728</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>178972.416</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>175488.76800000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>13</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>268567.38</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -3645,7 +3645,7 @@
         <v>500012.35200000001</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>13</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>228124.51199999999</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>13</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>468714.25199999998</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>13</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>385330.47899999999</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>13</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="R28" s="8"/>
       <c r="S28" s="8"/>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
@@ -3874,7 +3874,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>13</v>
       </c>
@@ -3927,7 +3927,7 @@
         <v>1162213.719</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>13</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>471488.89500000002</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>13</v>
       </c>
@@ -4025,7 +4025,7 @@
         <v>14043.456</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>57153.552000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>13</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>445144.89600000001</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>13</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>473231.799</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>13</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>174291.264</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>13</v>
       </c>
@@ -4274,7 +4274,7 @@
         <v>97759.539000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>13</v>
       </c>
@@ -4311,7 +4311,7 @@
       <c r="R38" s="8"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>13</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>9144.4140000000007</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>13</v>
       </c>
@@ -4393,7 +4393,7 @@
         <v>2394.9</v>
       </c>
     </row>
-    <row r="41" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>13</v>
       </c>
@@ -4430,7 +4430,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>13</v>
       </c>
@@ -4467,7 +4467,7 @@
       <c r="R42" s="8"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>13</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>13659.42</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>30816.240000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>13</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>106590</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>13</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="R46" s="8"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>13</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>85395</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>13</v>
       </c>
@@ -4753,7 +4753,7 @@
         <v>50.817</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>13</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>95719.62</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>13</v>
       </c>
@@ -4884,7 +4884,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>13</v>
       </c>
@@ -4925,7 +4925,7 @@
         <v>100608</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>13</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>117.678</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>13</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>140.69999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>13</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>61.941000000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>13</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>80107.350000000006</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>13</v>
       </c>
@@ -5158,7 +5158,7 @@
         <v>105599.577</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>13</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>62874.915000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>13</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>13</v>
       </c>
@@ -5297,7 +5297,7 @@
       <c r="R60" s="8"/>
       <c r="S60" s="8"/>
     </row>
-    <row r="61" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -5338,7 +5338,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
@@ -5379,7 +5379,7 @@
         <v>489.88799999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>13</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>19230.93</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>13</v>
       </c>
@@ -5473,7 +5473,7 @@
         <v>10946.19</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>13</v>
       </c>
@@ -5518,7 +5518,7 @@
         <v>16669.41</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>13</v>
       </c>
@@ -5563,7 +5563,7 @@
         <v>2613.96</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>13</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>23625.588</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>13</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>20982.18</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>13</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>1225810.5</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>13</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>70227.642000000007</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>13</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>209749.83600000001</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>13</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>36971.082000000002</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
@@ -5902,7 +5902,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>13</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>3320.3519999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>13</v>
       </c>
@@ -5988,7 +5988,7 @@
         <v>45066</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>13</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>163596.027</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>13</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>6831.018</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>13</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>2359.4699999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>13</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>13</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>77439.66</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>13</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>734.4</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>13</v>
       </c>
@@ -6291,7 +6291,7 @@
       <c r="R82" s="8"/>
       <c r="S82" s="8"/>
     </row>
-    <row r="83" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>13</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>4443.12</v>
       </c>
     </row>
-    <row r="84" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>13</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>13</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1505.52</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>13</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>12111713.286</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>169</v>
       </c>
@@ -6524,7 +6524,7 @@
         <v>68400</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>169</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>169</v>
       </c>
@@ -6620,7 +6620,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>169</v>
       </c>
@@ -6657,7 +6657,7 @@
       <c r="R90" s="8"/>
       <c r="S90" s="8"/>
     </row>
-    <row r="91" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>169</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>169</v>
       </c>
@@ -6747,7 +6747,7 @@
       <c r="R92" s="8"/>
       <c r="S92" s="8"/>
     </row>
-    <row r="93" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>169</v>
       </c>
@@ -6784,7 +6784,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>169</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="R94" s="8"/>
       <c r="S94" s="8"/>
     </row>
-    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>169</v>
       </c>
@@ -6858,7 +6858,7 @@
       <c r="R95" s="10"/>
       <c r="S95" s="10"/>
     </row>
-    <row r="96" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>169</v>
       </c>
@@ -6895,7 +6895,7 @@
       <c r="R96" s="8"/>
       <c r="S96" s="8"/>
     </row>
-    <row r="97" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>169</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>169</v>
       </c>
@@ -6977,7 +6977,7 @@
       <c r="R98" s="8"/>
       <c r="S98" s="8"/>
     </row>
-    <row r="99" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>169</v>
       </c>
@@ -7018,7 +7018,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>169</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="R100" s="8"/>
       <c r="S100" s="8"/>
     </row>
-    <row r="101" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>169</v>
       </c>
@@ -7096,7 +7096,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>169</v>
       </c>
@@ -7141,7 +7141,7 @@
       <c r="R102" s="8"/>
       <c r="S102" s="8"/>
     </row>
-    <row r="103" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>169</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>236400</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>201</v>
       </c>
@@ -7245,7 +7245,7 @@
         <v>114300</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>201</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>61560</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>201</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>60021</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>201</v>
       </c>
@@ -7372,7 +7372,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>201</v>
       </c>
@@ -7409,7 +7409,7 @@
       <c r="R108" s="8"/>
       <c r="S108" s="8"/>
     </row>
-    <row r="109" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>201</v>
       </c>
@@ -7446,7 +7446,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>201</v>
       </c>
@@ -7483,7 +7483,7 @@
       <c r="R110" s="8"/>
       <c r="S110" s="8"/>
     </row>
-    <row r="111" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>201</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>314928</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>201</v>
       </c>
@@ -7569,7 +7569,7 @@
       <c r="R112" s="8"/>
       <c r="S112" s="8"/>
     </row>
-    <row r="113" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>201</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>201</v>
       </c>
@@ -7667,7 +7667,7 @@
         <v>119750.39999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>201</v>
       </c>
@@ -7704,7 +7704,7 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>201</v>
       </c>
@@ -7741,7 +7741,7 @@
       <c r="R116" s="8"/>
       <c r="S116" s="8"/>
     </row>
-    <row r="117" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>201</v>
       </c>
@@ -7778,7 +7778,7 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>201</v>
       </c>
@@ -7819,7 +7819,7 @@
       <c r="R118" s="8"/>
       <c r="S118" s="8"/>
     </row>
-    <row r="119" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>201</v>
       </c>
@@ -7856,7 +7856,7 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>201</v>
       </c>
@@ -7897,7 +7897,7 @@
       <c r="R120" s="8"/>
       <c r="S120" s="8"/>
     </row>
-    <row r="121" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>201</v>
       </c>
@@ -7946,7 +7946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>201</v>
       </c>
@@ -7987,7 +7987,7 @@
       <c r="R122" s="8"/>
       <c r="S122" s="8"/>
     </row>
-    <row r="123" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>201</v>
       </c>
@@ -8028,7 +8028,7 @@
       <c r="R123" s="10"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>201</v>
       </c>
@@ -8069,7 +8069,7 @@
       <c r="R124" s="8"/>
       <c r="S124" s="8"/>
     </row>
-    <row r="125" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>201</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="126" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>201</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>72008.979000000007</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>201</v>
       </c>
@@ -8208,7 +8208,7 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>201</v>
       </c>
@@ -8245,7 +8245,7 @@
       <c r="R128" s="8"/>
       <c r="S128" s="8"/>
     </row>
-    <row r="129" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>201</v>
       </c>
@@ -8290,7 +8290,7 @@
       <c r="R129" s="10"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>201</v>
       </c>
@@ -8331,7 +8331,7 @@
       <c r="R130" s="8"/>
       <c r="S130" s="8"/>
     </row>
-    <row r="131" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>201</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>123149.961</v>
       </c>
     </row>
-    <row r="132" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>201</v>
       </c>
@@ -8413,7 +8413,7 @@
       <c r="R132" s="8"/>
       <c r="S132" s="8"/>
     </row>
-    <row r="133" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>201</v>
       </c>
@@ -8450,7 +8450,7 @@
       <c r="R133" s="10"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>201</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="R134" s="8"/>
       <c r="S134" s="8"/>
     </row>
-    <row r="135" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>201</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>504000</v>
       </c>
     </row>
-    <row r="136" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>201</v>
       </c>
@@ -8593,7 +8593,7 @@
         <v>432312.48</v>
       </c>
     </row>
-    <row r="137" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>201</v>
       </c>
@@ -8642,7 +8642,7 @@
         <v>216000</v>
       </c>
     </row>
-    <row r="138" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>201</v>
       </c>
@@ -8695,7 +8695,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="139" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>201</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>2226830.8199999998</v>
       </c>
     </row>
-    <row r="140" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>266</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="R140" s="8"/>
       <c r="S140" s="8"/>
     </row>
-    <row r="141" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>266</v>
       </c>
@@ -8830,7 +8830,7 @@
       <c r="R141" s="10"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>266</v>
       </c>
@@ -8871,7 +8871,7 @@
       <c r="R142" s="8"/>
       <c r="S142" s="8"/>
     </row>
-    <row r="143" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>266</v>
       </c>
@@ -8908,7 +8908,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>266</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>266</v>
       </c>
@@ -8998,7 +8998,7 @@
       <c r="R145" s="10"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>266</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>29250</v>
       </c>
     </row>
-    <row r="147" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>266</v>
       </c>
@@ -9088,7 +9088,7 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>266</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="149" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>266</v>
       </c>
@@ -9178,7 +9178,7 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>266</v>
       </c>
@@ -9223,7 +9223,7 @@
         <v>116596.95</v>
       </c>
     </row>
-    <row r="151" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>266</v>
       </c>
@@ -9264,7 +9264,7 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>266</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="R152" s="8"/>
       <c r="S152" s="8"/>
     </row>
-    <row r="153" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>266</v>
       </c>
@@ -9362,7 +9362,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="154" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>266</v>
       </c>
@@ -9399,7 +9399,7 @@
       <c r="R154" s="8"/>
       <c r="S154" s="8"/>
     </row>
-    <row r="155" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>266</v>
       </c>
@@ -9440,7 +9440,7 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>266</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="R156" s="8"/>
       <c r="S156" s="8"/>
     </row>
-    <row r="157" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>266</v>
       </c>
@@ -9530,7 +9530,7 @@
         <v>29040</v>
       </c>
     </row>
-    <row r="158" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>266</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>266</v>
       </c>
@@ -9612,7 +9612,7 @@
       <c r="R159" s="10"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>266</v>
       </c>
@@ -9657,7 +9657,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>266</v>
       </c>
@@ -9694,7 +9694,7 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>266</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="R162" s="8"/>
       <c r="S162" s="8"/>
     </row>
-    <row r="163" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>266</v>
       </c>
@@ -9780,7 +9780,7 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>266</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>266</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>432960</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>266</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>187642.40100000001</v>
       </c>
     </row>
-    <row r="167" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>266</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>266</v>
       </c>
@@ -10039,7 +10039,7 @@
         <v>71887.691999999995</v>
       </c>
     </row>
-    <row r="169" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>266</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>266</v>
       </c>
@@ -10129,7 +10129,7 @@
       <c r="R170" s="8"/>
       <c r="S170" s="8"/>
     </row>
-    <row r="171" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>266</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>144037.674</v>
       </c>
     </row>
-    <row r="172" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>266</v>
       </c>
@@ -10235,7 +10235,7 @@
         <v>217188</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>266</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>402174</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>266</v>
       </c>
@@ -10329,7 +10329,7 @@
       <c r="R174" s="8"/>
       <c r="S174" s="8"/>
     </row>
-    <row r="175" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>266</v>
       </c>
@@ -10374,7 +10374,7 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>266</v>
       </c>
@@ -10415,7 +10415,7 @@
       <c r="R176" s="8"/>
       <c r="S176" s="8"/>
     </row>
-    <row r="177" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>266</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>266</v>
       </c>
@@ -10511,7 +10511,7 @@
       <c r="R178" s="8"/>
       <c r="S178" s="8"/>
     </row>
-    <row r="179" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>266</v>
       </c>
@@ -10552,7 +10552,7 @@
       <c r="R179" s="10"/>
       <c r="S179" s="10"/>
     </row>
-    <row r="180" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>266</v>
       </c>
@@ -10605,7 +10605,7 @@
         <v>72030</v>
       </c>
     </row>
-    <row r="181" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>266</v>
       </c>
@@ -10646,7 +10646,7 @@
       <c r="R181" s="10"/>
       <c r="S181" s="10"/>
     </row>
-    <row r="182" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>266</v>
       </c>
@@ -10699,7 +10699,7 @@
         <v>36450</v>
       </c>
     </row>
-    <row r="183" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>266</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>72022.562999999995</v>
       </c>
     </row>
-    <row r="184" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>266</v>
       </c>
@@ -10801,7 +10801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>266</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>132824.478</v>
       </c>
     </row>
-    <row r="186" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>266</v>
       </c>
@@ -10891,7 +10891,7 @@
       <c r="R186" s="8"/>
       <c r="S186" s="8"/>
     </row>
-    <row r="187" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>266</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>31865.268</v>
       </c>
     </row>
-    <row r="188" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>266</v>
       </c>
@@ -10989,7 +10989,7 @@
         <v>455769.25699999998</v>
       </c>
     </row>
-    <row r="189" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>266</v>
       </c>
@@ -11030,7 +11030,7 @@
       <c r="R189" s="10"/>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>266</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>201470.68799999999</v>
       </c>
     </row>
-    <row r="191" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>266</v>
       </c>
@@ -11132,7 +11132,7 @@
         <v>71940</v>
       </c>
     </row>
-    <row r="192" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>266</v>
       </c>
@@ -11185,7 +11185,7 @@
         <v>96524.585000000006</v>
       </c>
     </row>
-    <row r="193" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>266</v>
       </c>
@@ -11226,7 +11226,7 @@
       <c r="R193" s="10"/>
       <c r="S193" s="10"/>
     </row>
-    <row r="194" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>266</v>
       </c>
@@ -11279,7 +11279,7 @@
         <v>15420</v>
       </c>
     </row>
-    <row r="195" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>266</v>
       </c>
@@ -11328,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>266</v>
       </c>
@@ -11365,7 +11365,7 @@
       <c r="R196" s="8"/>
       <c r="S196" s="8"/>
     </row>
-    <row r="197" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>266</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>266</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>72060.909</v>
       </c>
     </row>
-    <row r="199" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>266</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>152094.06599999999</v>
       </c>
     </row>
-    <row r="200" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>266</v>
       </c>
@@ -11573,7 +11573,7 @@
         <v>143865</v>
       </c>
     </row>
-    <row r="201" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>266</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="202" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>266</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>477520.26</v>
       </c>
     </row>
-    <row r="203" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>266</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>68097.447</v>
       </c>
     </row>
-    <row r="204" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>266</v>
       </c>
@@ -11773,7 +11773,7 @@
       <c r="R204" s="8"/>
       <c r="S204" s="8"/>
     </row>
-    <row r="205" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>266</v>
       </c>
@@ -11822,7 +11822,7 @@
         <v>51467.154000000002</v>
       </c>
     </row>
-    <row r="206" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>266</v>
       </c>
@@ -11863,7 +11863,7 @@
       <c r="R206" s="8"/>
       <c r="S206" s="8"/>
     </row>
-    <row r="207" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>266</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>47840</v>
       </c>
     </row>
-    <row r="208" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>165653.43</v>
       </c>
     </row>
-    <row r="209" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>266</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>75006.251999999993</v>
       </c>
     </row>
-    <row r="210" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>266</v>
       </c>
@@ -12059,7 +12059,7 @@
       <c r="R210" s="8"/>
       <c r="S210" s="8"/>
     </row>
-    <row r="211" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>266</v>
       </c>
@@ -12100,7 +12100,7 @@
       <c r="R211" s="10"/>
       <c r="S211" s="10"/>
     </row>
-    <row r="212" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>266</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>266</v>
       </c>
@@ -12194,7 +12194,7 @@
       <c r="R213" s="10"/>
       <c r="S213" s="10"/>
     </row>
-    <row r="214" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>266</v>
       </c>
@@ -12235,7 +12235,7 @@
       <c r="R214" s="8"/>
       <c r="S214" s="8"/>
     </row>
-    <row r="215" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>266</v>
       </c>
@@ -12276,7 +12276,7 @@
         <v>8651.25</v>
       </c>
     </row>
-    <row r="216" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>266</v>
       </c>
@@ -12313,7 +12313,7 @@
       <c r="R216" s="8"/>
       <c r="S216" s="8"/>
     </row>
-    <row r="217" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>266</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>331011</v>
       </c>
     </row>
-    <row r="218" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>266</v>
       </c>
@@ -12415,7 +12415,7 @@
         <v>73035.035999999993</v>
       </c>
     </row>
-    <row r="219" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>266</v>
       </c>
@@ -12452,7 +12452,7 @@
       <c r="R219" s="10"/>
       <c r="S219" s="10"/>
     </row>
-    <row r="220" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>266</v>
       </c>
@@ -12501,7 +12501,7 @@
         <v>21217.437000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>266</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>266</v>
       </c>
@@ -12587,7 +12587,7 @@
       <c r="R222" s="8"/>
       <c r="S222" s="8"/>
     </row>
-    <row r="223" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>266</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>144120</v>
       </c>
     </row>
-    <row r="224" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>266</v>
       </c>
@@ -12677,7 +12677,7 @@
       <c r="R224" s="8"/>
       <c r="S224" s="8"/>
     </row>
-    <row r="225" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>266</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>73432.808999999994</v>
       </c>
     </row>
-    <row r="226" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>266</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>266</v>
       </c>
@@ -12820,7 +12820,7 @@
       <c r="R227" s="10"/>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>266</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="229" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>266</v>
       </c>
@@ -12914,7 +12914,7 @@
       <c r="R229" s="10"/>
       <c r="S229" s="10"/>
     </row>
-    <row r="230" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>266</v>
       </c>
@@ -12967,7 +12967,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="231" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>266</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="232" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>266</v>
       </c>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>266</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>11025</v>
       </c>
     </row>
-    <row r="234" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>266</v>
       </c>
@@ -13165,7 +13165,7 @@
         <v>5290265.6059999997</v>
       </c>
     </row>
-    <row r="235" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>439</v>
       </c>
@@ -13202,7 +13202,7 @@
       <c r="R235" s="10"/>
       <c r="S235" s="10"/>
     </row>
-    <row r="236" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>439</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>17784</v>
       </c>
     </row>
-    <row r="237" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>439</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="R237" s="10"/>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>439</v>
       </c>
@@ -13329,7 +13329,7 @@
         <v>2661.3690000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>439</v>
       </c>
@@ -13378,7 +13378,7 @@
         <v>6990</v>
       </c>
     </row>
-    <row r="240" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>439</v>
       </c>
@@ -13427,7 +13427,7 @@
         <v>10518.591</v>
       </c>
     </row>
-    <row r="241" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>439</v>
       </c>
@@ -13468,7 +13468,7 @@
       <c r="R241" s="10"/>
       <c r="S241" s="10"/>
     </row>
-    <row r="242" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>439</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="243" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>439</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>1893.0989999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>439</v>
       </c>
@@ -13607,7 +13607,7 @@
       <c r="R244" s="8"/>
       <c r="S244" s="8"/>
     </row>
-    <row r="245" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>439</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="246" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>439</v>
       </c>
@@ -13705,7 +13705,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="247" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>439</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>18330</v>
       </c>
     </row>
-    <row r="248" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>439</v>
       </c>
@@ -13795,7 +13795,7 @@
       <c r="R248" s="8"/>
       <c r="S248" s="8"/>
     </row>
-    <row r="249" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>439</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>2558.9699999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>439</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>2721.8490000000002</v>
       </c>
     </row>
-    <row r="251" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>439</v>
       </c>
@@ -13926,7 +13926,7 @@
       <c r="R251" s="10"/>
       <c r="S251" s="10"/>
     </row>
-    <row r="252" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>439</v>
       </c>
@@ -13975,7 +13975,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="253" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>439</v>
       </c>
@@ -14016,7 +14016,7 @@
       <c r="R253" s="10"/>
       <c r="S253" s="10"/>
     </row>
-    <row r="254" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>439</v>
       </c>
@@ -14065,7 +14065,7 @@
         <v>22317.237000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>439</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>6023.3969999999999</v>
       </c>
     </row>
-    <row r="256" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>439</v>
       </c>
@@ -14163,7 +14163,7 @@
         <v>77740.433999999994</v>
       </c>
     </row>
-    <row r="257" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>439</v>
       </c>
@@ -14212,7 +14212,7 @@
         <v>12012</v>
       </c>
     </row>
-    <row r="258" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>439</v>
       </c>
@@ -14253,7 +14253,7 @@
       <c r="R258" s="8"/>
       <c r="S258" s="8"/>
     </row>
-    <row r="259" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>439</v>
       </c>
@@ -14290,7 +14290,7 @@
       <c r="R259" s="10"/>
       <c r="S259" s="10"/>
     </row>
-    <row r="260" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>439</v>
       </c>
@@ -14327,7 +14327,7 @@
       <c r="R260" s="8"/>
       <c r="S260" s="8"/>
     </row>
-    <row r="261" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>439</v>
       </c>
@@ -14364,7 +14364,7 @@
       <c r="R261" s="10"/>
       <c r="S261" s="10"/>
     </row>
-    <row r="262" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>439</v>
       </c>
@@ -14401,7 +14401,7 @@
       <c r="R262" s="8"/>
       <c r="S262" s="8"/>
     </row>
-    <row r="263" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>439</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>130607.13</v>
       </c>
     </row>
-    <row r="264" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>439</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>59084.982000000004</v>
       </c>
     </row>
-    <row r="265" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>439</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>17832.555</v>
       </c>
     </row>
-    <row r="266" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>439</v>
       </c>
@@ -14597,7 +14597,7 @@
         <v>111683.37300000001</v>
       </c>
     </row>
-    <row r="267" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>439</v>
       </c>
@@ -14638,7 +14638,7 @@
       <c r="R267" s="10"/>
       <c r="S267" s="10"/>
     </row>
-    <row r="268" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>439</v>
       </c>
@@ -14679,7 +14679,7 @@
       <c r="R268" s="8"/>
       <c r="S268" s="8"/>
     </row>
-    <row r="269" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>439</v>
       </c>
@@ -14720,7 +14720,7 @@
       <c r="R269" s="10"/>
       <c r="S269" s="10"/>
     </row>
-    <row r="270" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>439</v>
       </c>
@@ -14761,7 +14761,7 @@
       <c r="R270" s="8"/>
       <c r="S270" s="8"/>
     </row>
-    <row r="271" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>439</v>
       </c>
@@ -14802,7 +14802,7 @@
       <c r="R271" s="10"/>
       <c r="S271" s="10"/>
     </row>
-    <row r="272" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>439</v>
       </c>
@@ -14851,7 +14851,7 @@
         <v>11246.964</v>
       </c>
     </row>
-    <row r="273" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>439</v>
       </c>
@@ -14888,7 +14888,7 @@
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
     </row>
-    <row r="274" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>439</v>
       </c>
@@ -14937,7 +14937,7 @@
         <v>6008.8770000000004</v>
       </c>
     </row>
-    <row r="275" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>439</v>
       </c>
@@ -14974,7 +14974,7 @@
       <c r="R275" s="10"/>
       <c r="S275" s="10"/>
     </row>
-    <row r="276" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>439</v>
       </c>
@@ -15011,7 +15011,7 @@
       <c r="R276" s="8"/>
       <c r="S276" s="8"/>
     </row>
-    <row r="277" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>439</v>
       </c>
@@ -15062,12 +15062,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B277:D277"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="B86:D86"/>
     <mergeCell ref="B103:D103"/>
     <mergeCell ref="B139:D139"/>
     <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B277:D277"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
